--- a/ppt/FitAI-Pro_Gantt chart.xlsx
+++ b/ppt/FitAI-Pro_Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHH\team_project\FitAI-Pro\ppt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4545\Desktop\team_project\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C5D62-FC80-4311-9FE0-EB96A989CE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D263C0A0-86B0-4E31-B072-B77EAB14E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CE05EB2D-5AF3-474C-9A2F-3376BD7C2070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE05EB2D-5AF3-474C-9A2F-3376BD7C2070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>범례:</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>모델별 페이지 구현</t>
-  </si>
-  <si>
-    <t>서버구축</t>
   </si>
   <si>
     <t>테스트</t>
@@ -151,15 +148,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>근육증가식단예측모델 (ML)</t>
+    <t>프로젝트 시작 날짜</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>다이어트식단예측모델 (ML)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 시작 날짜</t>
+    <t>체형별식단예측모델 (ML)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -759,6 +752,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,7 +818,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,9 +897,6 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,15 +917,66 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="14" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,9 +992,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,62 +1001,29 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -980,7 +1033,76 @@
     <cellStyle name="제목 3" xfId="3" builtinId="18"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="156">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1154,683 +1276,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1848,6 +1293,144 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1934,6 +1517,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2003,6 +1603,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2069,6 +1686,802 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2886,9 +3299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2926,7 +3339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3032,7 +3445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3174,7 +3587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3182,24 +3595,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55CA68C-80F4-457A-9DEB-F56B7712112C}">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W50" sqref="W50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="16" width="3.25" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.875" customWidth="1"/>
     <col min="27" max="27" width="28.375" customWidth="1"/>
     <col min="28" max="28" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17.25" thickBot="1">
+    <row r="1" spans="1:28" ht="11.25" customHeight="1" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3225,148 +3640,148 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="39">
+    <row r="2" spans="1:28" ht="33.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="26.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
-        <v>36</v>
+      <c r="B3" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="25">
         <v>45705</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="44" t="str">
+      <c r="D3" s="35"/>
+      <c r="E3" s="60" t="str">
         <f ca="1">TEXT(E4,"m월")</f>
         <v>2월</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44" t="str">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="70" t="str">
         <f ca="1">IF(OR(TEXT(S4,"m월")=L3,TEXT(S4,"m월")=E3),"",TEXT(S4,"m월"))</f>
         <v>3월</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="71"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="5"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="34">
+      <c r="D4" s="29"/>
+      <c r="E4" s="33">
         <f ca="1">IFERROR(C3,TODAY())</f>
         <v>45705</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <f ca="1">E4+1</f>
         <v>45706</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <f t="shared" ref="G4:W4" ca="1" si="0">F4+1</f>
         <v>45707</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45708</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45709</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45710</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45711</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <f ca="1">K4+1</f>
         <v>45712</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <f ca="1">L4+1</f>
         <v>45713</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45714</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45715</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>45716</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>45717</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>45718</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="68">
         <f ca="1">R4+1</f>
         <v>45719</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="68">
         <f ca="1">S4+1</f>
         <v>45720</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>45721</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>45722</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="69">
         <f t="shared" ca="1" si="0"/>
         <v>45723</v>
       </c>
@@ -3381,79 +3796,79 @@
         <v>6</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="35" t="str">
+      <c r="E5" s="34" t="str">
         <f t="shared" ref="E5:W5" ca="1" si="1">LEFT(TEXT(E4,"aaa"),1)</f>
         <v>월</v>
       </c>
-      <c r="F5" s="35" t="str">
+      <c r="F5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>화</v>
       </c>
-      <c r="G5" s="35" t="str">
+      <c r="G5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>수</v>
       </c>
-      <c r="H5" s="35" t="str">
+      <c r="H5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>목</v>
       </c>
-      <c r="I5" s="35" t="str">
+      <c r="I5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>금</v>
       </c>
-      <c r="J5" s="35" t="str">
+      <c r="J5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>토</v>
       </c>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>일</v>
       </c>
-      <c r="L5" s="35" t="str">
+      <c r="L5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>월</v>
       </c>
-      <c r="M5" s="35" t="str">
+      <c r="M5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>화</v>
       </c>
-      <c r="N5" s="35" t="str">
+      <c r="N5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>수</v>
       </c>
-      <c r="O5" s="35" t="str">
+      <c r="O5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>목</v>
       </c>
-      <c r="P5" s="35" t="str">
+      <c r="P5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>금</v>
       </c>
-      <c r="Q5" s="35" t="str">
+      <c r="Q5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>토</v>
       </c>
-      <c r="R5" s="35" t="str">
+      <c r="R5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>일</v>
       </c>
-      <c r="S5" s="35" t="str">
+      <c r="S5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>월</v>
       </c>
-      <c r="T5" s="35" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T5" s="34" t="str">
+        <f ca="1">LEFT(TEXT(T4,"aaa"),1)</f>
         <v>화</v>
       </c>
-      <c r="U5" s="35" t="str">
+      <c r="U5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>수</v>
       </c>
-      <c r="V5" s="35" t="str">
+      <c r="V5" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>목</v>
       </c>
-      <c r="W5" s="38" t="str">
+      <c r="W5" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>금</v>
       </c>
@@ -3464,36 +3879,36 @@
       <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="9.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="18"/>
@@ -3521,10 +3936,10 @@
     </row>
     <row r="8" spans="1:28" ht="9.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3549,11 +3964,11 @@
     </row>
     <row r="9" spans="1:28" ht="9.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>17</v>
+      <c r="B9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18"/>
@@ -3581,10 +3996,10 @@
     </row>
     <row r="10" spans="1:28" ht="9.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3609,11 +4024,11 @@
     </row>
     <row r="11" spans="1:28" ht="9.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>17</v>
+      <c r="C11" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="18"/>
@@ -3641,11 +4056,11 @@
     </row>
     <row r="12" spans="1:28" ht="9.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -3669,10 +4084,10 @@
     </row>
     <row r="13" spans="1:28" ht="9.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="59"/>
+      <c r="B13" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3699,8 +4114,8 @@
     </row>
     <row r="14" spans="1:28" ht="9.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -3727,11 +4142,11 @@
     </row>
     <row r="15" spans="1:28" ht="9.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>14</v>
+      <c r="B15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="17"/>
@@ -3759,13 +4174,13 @@
     </row>
     <row r="16" spans="1:28" ht="9.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="26"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -3787,11 +4202,11 @@
     </row>
     <row r="17" spans="1:28" ht="9.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>14</v>
+      <c r="B17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="17"/>
@@ -3819,14 +4234,14 @@
     </row>
     <row r="18" spans="1:28" ht="9.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="26"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -3847,11 +4262,11 @@
     </row>
     <row r="19" spans="1:28" ht="9.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>15</v>
+      <c r="B19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="17"/>
@@ -3879,14 +4294,14 @@
     </row>
     <row r="20" spans="1:28" ht="9.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="26"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -3907,11 +4322,11 @@
     </row>
     <row r="21" spans="1:28" ht="9.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>15</v>
+      <c r="B21" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="17"/>
@@ -3939,15 +4354,15 @@
     </row>
     <row r="22" spans="1:28" ht="9.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="26"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -3967,11 +4382,11 @@
     </row>
     <row r="23" spans="1:28" ht="9.75" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>16</v>
+      <c r="B23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="17"/>
@@ -3999,14 +4414,14 @@
     </row>
     <row r="24" spans="1:28" ht="9.75" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="26"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -4027,11 +4442,11 @@
     </row>
     <row r="25" spans="1:28" ht="9.75" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>16</v>
+      <c r="B25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="17"/>
@@ -4058,15 +4473,15 @@
     </row>
     <row r="26" spans="1:28" ht="9.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="26"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -4081,15 +4496,15 @@
       <c r="V26" s="17"/>
       <c r="W26" s="23"/>
       <c r="X26" s="5"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="55"/>
     </row>
     <row r="27" spans="1:28" ht="9.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="59"/>
+      <c r="B27" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4111,13 +4526,13 @@
       <c r="V27" s="17"/>
       <c r="W27" s="23"/>
       <c r="X27" s="5"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="55"/>
     </row>
     <row r="28" spans="1:28" ht="9.75" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4144,11 +4559,11 @@
     </row>
     <row r="29" spans="1:28" ht="9.75" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>14</v>
+      <c r="B29" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="17"/>
@@ -4159,9 +4574,9 @@
       <c r="J29" s="17"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
@@ -4176,8 +4591,8 @@
     </row>
     <row r="30" spans="1:28" ht="9.75" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="26"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -4186,10 +4601,10 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
@@ -4204,10 +4619,10 @@
     </row>
     <row r="31" spans="1:28" ht="9.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="26"/>
@@ -4217,10 +4632,10 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -4234,8 +4649,8 @@
     </row>
     <row r="32" spans="1:28" ht="9.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="26"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -4243,11 +4658,11 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
@@ -4260,11 +4675,11 @@
     </row>
     <row r="33" spans="1:24" ht="9.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>15</v>
+      <c r="B33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="17"/>
@@ -4273,12 +4688,12 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
@@ -4290,8 +4705,8 @@
     </row>
     <row r="34" spans="1:24" ht="9.75" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="26"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -4303,8 +4718,8 @@
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
@@ -4316,10 +4731,10 @@
     </row>
     <row r="35" spans="1:24" ht="9.75" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="26"/>
@@ -4329,12 +4744,12 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
@@ -4346,21 +4761,21 @@
     </row>
     <row r="36" spans="1:24" ht="9.75" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="26"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
@@ -4372,11 +4787,11 @@
     </row>
     <row r="37" spans="1:24" ht="9.75" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>16</v>
+      <c r="C37" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="17"/>
@@ -4385,12 +4800,12 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
@@ -4402,21 +4817,21 @@
     </row>
     <row r="38" spans="1:24" ht="9.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="26"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
@@ -4428,13 +4843,11 @@
     </row>
     <row r="39" spans="1:24" ht="9.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="26"/>
+      <c r="B39" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4445,8 +4858,8 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
@@ -4458,9 +4871,9 @@
     </row>
     <row r="40" spans="1:24" ht="9.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -4471,8 +4884,8 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
@@ -4484,11 +4897,13 @@
     </row>
     <row r="41" spans="1:24" ht="9.75" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="16"/>
+      <c r="B41" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="26"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -4501,9 +4916,9 @@
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
@@ -4512,9 +4927,9 @@
     </row>
     <row r="42" spans="1:24" ht="9.75" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -4527,8 +4942,8 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
@@ -4538,11 +4953,11 @@
     </row>
     <row r="43" spans="1:24" ht="9.75" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>17</v>
+      <c r="B43" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="17"/>
@@ -4557,19 +4972,19 @@
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
       <c r="S43" s="18"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
       <c r="V43" s="17"/>
       <c r="W43" s="23"/>
       <c r="X43" s="5"/>
     </row>
     <row r="44" spans="1:24" ht="9.75" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="26"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -4583,22 +4998,22 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
       <c r="V44" s="17"/>
       <c r="W44" s="23"/>
       <c r="X44" s="5"/>
     </row>
     <row r="45" spans="1:24" ht="9.75" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>17</v>
+      <c r="B45" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="17"/>
@@ -4615,283 +5030,148 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
       <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="23"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="41"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24" ht="9.75" customHeight="1">
+    <row r="46" spans="1:24" ht="9.75" customHeight="1" thickBot="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="23"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="42"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" spans="1:24" ht="9.75" customHeight="1">
+    <row r="47" spans="1:24" ht="6.75" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="23"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
       <c r="X47" s="5"/>
     </row>
-    <row r="48" spans="1:24" ht="9.75" customHeight="1">
+    <row r="48" spans="1:24" ht="20.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="23"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24" ht="9.75" customHeight="1">
+    <row r="49" spans="1:24" ht="20.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="66"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="5"/>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-    </row>
-    <row r="52" spans="1:24" ht="20.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="5"/>
-    </row>
-    <row r="53" spans="1:24" ht="20.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="5"/>
-    </row>
-    <row r="60" spans="1:24" ht="20.25">
-      <c r="N60" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
+    <row r="56" spans="1:24" ht="20.25">
+      <c r="N56" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
+  <mergeCells count="51">
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="Q49:U49"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="AA26:AA27"/>
     <mergeCell ref="AB26:AB27"/>
@@ -4908,485 +5188,435 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="K53:O53"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="131" priority="387">
+    <cfRule type="expression" dxfId="155" priority="426">
       <formula>AND(E$4&lt;=EOMONTH($E$4,1),E$4&gt;EOMONTH($E$4,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="389">
+    <cfRule type="expression" dxfId="154" priority="428">
       <formula>E$4&lt;=EOMONTH($E$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17 K17:V17 E18:V18 E4:V5 F6:V6">
-    <cfRule type="expression" dxfId="129" priority="386">
+  <conditionalFormatting sqref="K17:V17 E17:F18 E4:V5 F6:V6 E33:V33 E35:V35 E34:N34 Q34:V34 P32 E27:V29 E31:V31 E30:J30 P30:V30 J18:V18">
+    <cfRule type="expression" dxfId="153" priority="425">
       <formula>AND(TODAY()&gt;=E$4,TODAY()&lt;F$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:V7 E9:V9 F8:V8 E11:V11 F10:V10 E13:V16 G12:V12">
-    <cfRule type="expression" dxfId="128" priority="338">
+  <conditionalFormatting sqref="E7:V7 E9:V9 F8:V8 E11:V11 F10:V10 E13:V15 G12:V12 E16 I16:V16">
+    <cfRule type="expression" dxfId="152" priority="377">
       <formula>AND(TODAY()&gt;=E$4,TODAY()&lt;F$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:V23 E25:V25 E24:F24 J24:V24 E27:V37 E26:G26 K26:V26 E39:V39 E38:I38 Q38:V38 E41:V43 E40:N40 Q40:V40 E45:V45 E44:P44 S44:V44 E47:V48 E46:R46 U46:V46">
-    <cfRule type="expression" dxfId="127" priority="1">
+  <conditionalFormatting sqref="E19:V19 E25:V25 E24:F24 J24:V24 E26:G26 K26:V26 E37:V37 E36:I36 Q36:V36 E39:V41 E38:N38 Q38:V38 E43:T43 E42:P42 S42:V42 E44:R44 E32:J32 Q32:V32 E21:V21 E20:F20 J20:V20 E23:V23 E22:G22 K22:V22 V43:V44">
+    <cfRule type="expression" dxfId="151" priority="40">
       <formula>AND(TODAY()&gt;=E$4,TODAY()&lt;F$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:V50">
-    <cfRule type="expression" dxfId="126" priority="10">
+  <conditionalFormatting sqref="E46:U46">
+    <cfRule type="expression" dxfId="150" priority="49">
       <formula>AND(TODAY()&gt;=E$4,TODAY()&lt;F$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:W7 E17:F17 K17:W17 E18:W23 E29:J29 M29:W29 E30:W30 E31:L31 O31:W31 E32:W37 T43:W43 E43:P45 E46:R46 R47:T47 W47 E47:P48 R48:W48 E49:V49 E50:N50 Q50:V50 F8:W8 E25:W25 E24:F24 J24:W24 E27:W28 E26:G26 K26:W26 E39:W39 E38:I38 Q38:W38 E41:W42 E40:N40 Q40:W40 S44:W44 U45:W46">
-    <cfRule type="expression" dxfId="125" priority="373" stopIfTrue="1">
+  <conditionalFormatting sqref="E7:W7 K17:W17 E19:W19 M29:W29 F8:W8 E25:W25 E24:F24 J24:W24 E27:W28 E26:G26 K26:W26 E31:W31 E36:I36 E38:N38 E32:J32 T41:W41 E41:P43 E44:R44 E37:W37 Q36:W36 E39:W40 Q38:W38 S42:W42 V43:W44 E33:W33 E35:W35 E34:N34 Q34:W34 Q32:W32 E29:J30 P30:W30 E21:W21 E20:F20 J20:W20 E23:W23 E22:G22 K22:W22 E17:F18 J18:W18 E46:N46 E45:U45 Q46:U46">
+    <cfRule type="expression" dxfId="149" priority="412" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="413" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="414" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",E$4&gt;=#REF!,E$4&lt;=#REF!+$D7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="415" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="416" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,E$4&gt;=#REF!,E$4&lt;=#REF!+$D7-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:W9 F10:W10">
-    <cfRule type="expression" dxfId="120" priority="365" stopIfTrue="1">
+  <conditionalFormatting sqref="E9:W9 F10:W10 R41:S41 R43:T43 O46">
+    <cfRule type="expression" dxfId="144" priority="404" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="405" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="406" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",E$4&gt;=#REF!,E$4&lt;=#REF!+$D9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="408" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,E$4&gt;=#REF!,E$4&lt;=#REF!+$D9-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:W11 G12:W12">
-    <cfRule type="expression" dxfId="115" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="396" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="397" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="398" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",E$4&gt;=#REF!,E$4&lt;=#REF!+$D11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="399" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="400" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,E$4&gt;=#REF!,E$4&lt;=#REF!+$D11-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:W14">
-    <cfRule type="expression" dxfId="110" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="388" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="389" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="390" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",E$4&gt;=#REF!,E$4&lt;=#REF!+$D13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="391" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="392" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,E$4&gt;=#REF!,E$4&lt;=#REF!+$D13-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:W16">
-    <cfRule type="expression" dxfId="105" priority="341" stopIfTrue="1">
+  <conditionalFormatting sqref="E15:W15 E16 I16:W16">
+    <cfRule type="expression" dxfId="129" priority="380" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="381" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="382" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",E$4&gt;=#REF!,E$4&lt;=#REF!+$D15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="383" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",E$4&gt;=#REF!,E$4&lt;=#REF!+$D15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="384" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,E$4&gt;=#REF!,E$4&lt;=#REF!+$D15-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:W49">
-    <cfRule type="expression" dxfId="100" priority="24">
+  <conditionalFormatting sqref="E45:U45 W45">
+    <cfRule type="expression" dxfId="124" priority="63">
       <formula>AND(TODAY()&gt;=E$4,TODAY()&lt;F$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:W6">
-    <cfRule type="expression" dxfId="99" priority="405" stopIfTrue="1">
+  <conditionalFormatting sqref="F6:W6 P46 W45">
+    <cfRule type="expression" dxfId="123" priority="444" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",F$4&gt;=#REF!,F$4&lt;=#REF!+$D6-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",F$4&gt;=#REF!,F$4&lt;=#REF!+$D6-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="446" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",F$4&gt;=#REF!,F$4&lt;=#REF!+$D6-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="447" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",F$4&gt;=#REF!,F$4&lt;=#REF!+$D6-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="448" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,F$4&gt;=#REF!,F$4&lt;=#REF!+$D6-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="94" priority="411">
+    <cfRule type="expression" dxfId="118" priority="450">
       <formula>AND(TODAY()&gt;=G$4,TODAY()&lt;H$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="457" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",G$4&gt;=#REF!,G$4&lt;=#REF!+$D17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="458" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",G$4&gt;=#REF!,G$4&lt;=#REF!+$D17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="459" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",G$4&gt;=#REF!,G$4&lt;=#REF!+$D17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="460" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",G$4&gt;=#REF!,G$4&lt;=#REF!+$D17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="461" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,G$4&gt;=#REF!,G$4&lt;=#REF!+$D17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="88" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="212" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="213" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="214" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",K$4&gt;=#REF!,K$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="215" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="216" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,K$4&gt;=#REF!,K$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:N33">
-    <cfRule type="expression" dxfId="83" priority="194">
+  <conditionalFormatting sqref="K31:N31">
+    <cfRule type="expression" dxfId="107" priority="233">
       <formula>AND(TODAY()&gt;=K$4,TODAY()&lt;L$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:N37">
-    <cfRule type="expression" dxfId="82" priority="182">
+  <conditionalFormatting sqref="K35:N35">
+    <cfRule type="expression" dxfId="106" priority="221">
       <formula>AND(TODAY()&gt;=K$4,TODAY()&lt;L$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="81" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="205" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",L$4&gt;=#REF!,L$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="206" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",L$4&gt;=#REF!,L$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="207" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",L$4&gt;=#REF!,L$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="208" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",L$4&gt;=#REF!,L$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="209" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="76" priority="159" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="160" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="161" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",M$4&gt;=#REF!,M$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="162" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="163" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,M$4&gt;=#REF!,M$4&lt;=#REF!+$D31-1)</formula>
+  <conditionalFormatting sqref="O33:P33">
+    <cfRule type="expression" dxfId="100" priority="229">
+      <formula>AND(TODAY()&gt;=O$4,TODAY()&lt;P$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="71" priority="152" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="153" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="154" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",N$4&gt;=#REF!,N$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="155" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="156" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,N$4&gt;=#REF!,N$4&lt;=#REF!+$D31-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O50">
-    <cfRule type="expression" dxfId="66" priority="19" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="20" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="21" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",O$4&gt;=#REF!,O$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="22" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="23" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,O$4&gt;=#REF!,O$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="expression" dxfId="61" priority="190">
+  <conditionalFormatting sqref="O37:P37">
+    <cfRule type="expression" dxfId="99" priority="217">
       <formula>AND(TODAY()&gt;=O$4,TODAY()&lt;P$4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39:P39">
-    <cfRule type="expression" dxfId="60" priority="178">
-      <formula>AND(TODAY()&gt;=O$4,TODAY()&lt;P$4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P50">
-    <cfRule type="expression" dxfId="59" priority="12" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="13" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",P$4&gt;=#REF!,P$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D50-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="16" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,P$4&gt;=#REF!,P$4&lt;=#REF!+$D50-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="54" priority="398">
+    <cfRule type="expression" dxfId="98" priority="437">
       <formula>S$4&lt;=EOMONTH($E$4,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="401">
+    <cfRule type="expression" dxfId="97" priority="440">
       <formula>AND(S$4&lt;=EOMONTH($E$4,2),S$4&gt;EOMONTH($E$4,0),S$4&gt;EOMONTH($E$4,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="404">
+    <cfRule type="expression" dxfId="96" priority="443">
       <formula>AND(S$4&lt;=EOMONTH($E$4,1),S$4&gt;EOMONTH($E$4,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="expression" dxfId="95" priority="170" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D41-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="171" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D41-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="172" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D41-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="173" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D41-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="174" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D41-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="expression" dxfId="51" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="121" stopIfTrue="1">
       <formula>AND(#REF!="낮은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="122" stopIfTrue="1">
       <formula>AND(#REF!="높은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="123" stopIfTrue="1">
       <formula>AND(#REF!="정상 진행 중",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="124" stopIfTrue="1">
       <formula>AND(#REF!="중간 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="125" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
-    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="83" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="84" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="85" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D45-1)</formula>
+  <conditionalFormatting sqref="W4:W44">
+    <cfRule type="expression" dxfId="85" priority="250">
+      <formula>AND(TODAY()&gt;=W$4,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q47:Q48">
-    <cfRule type="expression" dxfId="41" priority="47" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="51" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,Q$4&gt;=#REF!,Q$4&lt;=#REF!+$D47-1)</formula>
+  <conditionalFormatting sqref="P32">
+    <cfRule type="expression" dxfId="84" priority="544" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D34-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="545" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D34-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="546" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",P$4&gt;=#REF!,P$4&lt;=#REF!+$D34-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="547" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",P$4&gt;=#REF!,P$4&lt;=#REF!+$D34-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="548" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,P$4&gt;=#REF!,P$4&lt;=#REF!+$D34-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43">
-    <cfRule type="expression" dxfId="36" priority="124" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="125" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="126" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",R$4&gt;=#REF!,R$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="127" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="128" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,R$4&gt;=#REF!,R$4&lt;=#REF!+$D43-1)</formula>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="expression" dxfId="79" priority="35" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="36" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="37" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",M$4&gt;=#REF!,M$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="38" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",M$4&gt;=#REF!,M$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="39" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,M$4&gt;=#REF!,M$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="31" priority="54" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="55" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="56" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",R$4&gt;=#REF!,R$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="57" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",R$4&gt;=#REF!,R$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="58" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,R$4&gt;=#REF!,R$4&lt;=#REF!+$D45-1)</formula>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="30" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="31" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",N$4&gt;=#REF!,N$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="32" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",N$4&gt;=#REF!,N$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="33" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,N$4&gt;=#REF!,N$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43">
-    <cfRule type="expression" dxfId="26" priority="68" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="69" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="70" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",S$4&gt;=#REF!,S$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="71" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D43-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="72" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,S$4&gt;=#REF!,S$4&lt;=#REF!+$D43-1)</formula>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="expression" dxfId="69" priority="23" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="24" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="25" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",O$4&gt;=#REF!,O$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="26" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",O$4&gt;=#REF!,O$4&lt;=#REF!+$D29-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="27" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,O$4&gt;=#REF!,O$4&lt;=#REF!+$D29-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45">
-    <cfRule type="expression" dxfId="21" priority="96" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="97" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="98" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",S$4&gt;=#REF!,S$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="99" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",S$4&gt;=#REF!,S$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="100" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,S$4&gt;=#REF!,S$4&lt;=#REF!+$D45-1)</formula>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="64" priority="21">
+      <formula>AND(TODAY()&gt;=K$4,TODAY()&lt;L$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T45">
-    <cfRule type="expression" dxfId="16" priority="89" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",T$4&gt;=#REF!,T$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="90" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",T$4&gt;=#REF!,T$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="91" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",T$4&gt;=#REF!,T$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="92" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",T$4&gt;=#REF!,T$4&lt;=#REF!+$D45-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="93" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,T$4&gt;=#REF!,T$4&lt;=#REF!+$D45-1)</formula>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D30-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="17" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D30-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="18" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",K$4&gt;=#REF!,K$4&lt;=#REF!+$D30-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="19" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",K$4&gt;=#REF!,K$4&lt;=#REF!+$D30-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="20" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,K$4&gt;=#REF!,K$4&lt;=#REF!+$D30-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:V47">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",U$4&gt;=#REF!,U$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D47-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,U$4&gt;=#REF!,U$4&lt;=#REF!+$D47-1)</formula>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" dxfId="58" priority="8">
+      <formula>AND(TODAY()&gt;=U$4,TODAY()&lt;V$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W48">
-    <cfRule type="expression" dxfId="6" priority="211">
-      <formula>AND(TODAY()&gt;=W$4,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="12" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",U$4&gt;=#REF!,U$4&lt;=#REF!+$D43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="13" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",U$4&gt;=#REF!,U$4&lt;=#REF!+$D43-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="14" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,U$4&gt;=#REF!,U$4&lt;=#REF!+$D43-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W49">
-    <cfRule type="expression" dxfId="5" priority="26" stopIfTrue="1">
-      <formula>AND(#REF!="낮은 위험 수준",W$4&gt;=#REF!,W$4&lt;=#REF!+$D49-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
-      <formula>AND(#REF!="높은 위험 수준",W$4&gt;=#REF!,W$4&lt;=#REF!+$D49-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
-      <formula>AND(#REF!="정상 진행 중",W$4&gt;=#REF!,W$4&lt;=#REF!+$D49-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="29" stopIfTrue="1">
-      <formula>AND(#REF!="중간 위험 수준",W$4&gt;=#REF!,W$4&lt;=#REF!+$D49-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,W$4&gt;=#REF!,W$4&lt;=#REF!+$D49-1)</formula>
+  <conditionalFormatting sqref="V45">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(TODAY()&gt;=V$4,TODAY()&lt;W$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V45">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+      <formula>AND(#REF!="낮은 위험 수준",V$4&gt;=#REF!,V$4&lt;=#REF!+$D45-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>AND(#REF!="높은 위험 수준",V$4&gt;=#REF!,V$4&lt;=#REF!+$D45-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>AND(#REF!="정상 진행 중",V$4&gt;=#REF!,V$4&lt;=#REF!+$D45-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>AND(#REF!="중간 위험 수준",V$4&gt;=#REF!,V$4&lt;=#REF!+$D45-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,V$4&gt;=#REF!,V$4&lt;=#REF!+$D45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="212" id="{68EBF9FB-5BF5-4A40-9F55-2568F559547F}">
+          <x14:cfRule type="iconSet" priority="243" id="{FCF7816D-13C3-4F35-A45F-56BE3BEF9FD8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5402,29 +5632,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E47:P48 R48:W48 R47:T47 W47</xm:sqref>
+          <xm:sqref>E45:U45 E46:N46 Q46:U46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="204" id="{FCF7816D-13C3-4F35-A45F-56BE3BEF9FD8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E49:V49 E50:N50 Q50:V50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="372" id="{72B38BA9-2D7D-47C1-9B29-443140486742}">
+          <x14:cfRule type="iconSet" priority="411" id="{72B38BA9-2D7D-47C1-9B29-443140486742}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5443,7 +5654,7 @@
           <xm:sqref>E7:W7 F8:W8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="364" id="{10E163DF-3088-45FF-81BA-4948F368307B}">
+          <x14:cfRule type="iconSet" priority="403" id="{10E163DF-3088-45FF-81BA-4948F368307B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5462,7 +5673,7 @@
           <xm:sqref>E9:W9 F10:W10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="356" id="{D0A7EA37-325F-4ED5-8022-FDBD2D2CB2A3}">
+          <x14:cfRule type="iconSet" priority="395" id="{D0A7EA37-325F-4ED5-8022-FDBD2D2CB2A3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5481,7 +5692,7 @@
           <xm:sqref>E11:W11 G12:W12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="348" id="{D433E2E4-A176-4F13-81C5-3AE1C3587E4D}">
+          <x14:cfRule type="iconSet" priority="387" id="{D433E2E4-A176-4F13-81C5-3AE1C3587E4D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5500,7 +5711,7 @@
           <xm:sqref>E13:W14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="340" id="{C014EF61-DE03-469B-BE3A-B4D75E5F1FAE}">
+          <x14:cfRule type="iconSet" priority="379" id="{C014EF61-DE03-469B-BE3A-B4D75E5F1FAE}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5516,10 +5727,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E15:W16</xm:sqref>
+          <xm:sqref>E15:W15 E16 I16:W16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="332" id="{B270857A-1E97-4A0A-A01C-8548DC936BF4}">
+          <x14:cfRule type="iconSet" priority="371" id="{B270857A-1E97-4A0A-A01C-8548DC936BF4}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5535,10 +5746,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E18:W18 E17:F17 H17:W17</xm:sqref>
+          <xm:sqref>E17:F18 H17:W17 J18:W18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="324" id="{A25D640F-C957-4780-82F9-66DF6543EDAC}">
+          <x14:cfRule type="iconSet" priority="363" id="{A25D640F-C957-4780-82F9-66DF6543EDAC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,10 +5765,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E19:W20</xm:sqref>
+          <xm:sqref>E19:W19 E20:F20 J20:W20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="316" id="{D5346261-B19A-40EA-A09D-19024D597C9E}">
+          <x14:cfRule type="iconSet" priority="355" id="{D5346261-B19A-40EA-A09D-19024D597C9E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5573,10 +5784,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E21:W22</xm:sqref>
+          <xm:sqref>E21:W21 E22:G22 K22:W22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="308" id="{1679D2C9-30AA-4A6A-B737-298A0CC524F1}">
+          <x14:cfRule type="iconSet" priority="347" id="{1679D2C9-30AA-4A6A-B737-298A0CC524F1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5595,7 +5806,7 @@
           <xm:sqref>E23:W23 E24:F24 J24:W24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="300" id="{F5A388AA-227C-41B5-9B16-FA0D1937E08A}">
+          <x14:cfRule type="iconSet" priority="339" id="{F5A388AA-227C-41B5-9B16-FA0D1937E08A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5614,7 +5825,7 @@
           <xm:sqref>E25:W25 E26:G26 K26:W26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="292" id="{AE3B1D4E-8561-4050-8052-4836FC13B162}">
+          <x14:cfRule type="iconSet" priority="331" id="{AE3B1D4E-8561-4050-8052-4836FC13B162}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5633,7 +5844,7 @@
           <xm:sqref>E27:W28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{3F52FAD9-E0B2-4F51-9859-C4232405282E}">
+          <x14:cfRule type="iconSet" priority="323" id="{3F52FAD9-E0B2-4F51-9859-C4232405282E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5649,10 +5860,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E30:W30 E29:J29 M29:W29</xm:sqref>
+          <xm:sqref>E29:J30 M29:W29 P30:W30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="276" id="{7A5C2E1A-5920-46A4-8EDB-DF1EF366508E}">
+          <x14:cfRule type="iconSet" priority="307" id="{28FEA518-1EFF-455D-B513-1933CD187459}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5668,10 +5879,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E32:W32 E31:L31 O31:W31</xm:sqref>
+          <xm:sqref>E31:W31 E32:J32 Q32:W32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="268" id="{28FEA518-1EFF-455D-B513-1933CD187459}">
+          <x14:cfRule type="iconSet" priority="299" id="{9CD26B8E-D99E-4A2A-BB28-05CC1FBD26B4}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5687,10 +5898,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E33:W34</xm:sqref>
+          <xm:sqref>E33:W33 E34:N34 Q34:W34 P32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="260" id="{9CD26B8E-D99E-4A2A-BB28-05CC1FBD26B4}">
+          <x14:cfRule type="iconSet" priority="291" id="{A40DDDDC-5AEF-4F7D-80CE-435F1038A238}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5706,10 +5917,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E35:W36</xm:sqref>
+          <xm:sqref>E35:W35 E36:I36 Q36:W36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="252" id="{A40DDDDC-5AEF-4F7D-80CE-435F1038A238}">
+          <x14:cfRule type="iconSet" priority="283" id="{70904D05-E6B8-4339-9B25-EC62A23A5B25}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5725,10 +5936,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E37:W37 E38:I38 Q38:W38</xm:sqref>
+          <xm:sqref>E37:W37 E38:N38 Q38:W38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="244" id="{70904D05-E6B8-4339-9B25-EC62A23A5B25}">
+          <x14:cfRule type="iconSet" priority="275" id="{2FEADC53-DD60-44FD-9BB5-8999D3BDC16D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5744,10 +5955,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E39:W39 E40:N40 Q40:W40</xm:sqref>
+          <xm:sqref>E39:W40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="236" id="{2FEADC53-DD60-44FD-9BB5-8999D3BDC16D}">
+          <x14:cfRule type="iconSet" priority="267" id="{F339307F-8165-4F8C-960B-92EF6011A537}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5763,10 +5974,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E41:W42</xm:sqref>
+          <xm:sqref>E41:P42 T41:W41 S42:W42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="228" id="{F339307F-8165-4F8C-960B-92EF6011A537}">
+          <x14:cfRule type="iconSet" priority="259" id="{DAB09B98-6111-4707-914A-9DA75AC1A036}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5782,29 +5993,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E43:P44 T43:W43 S44:W44</xm:sqref>
+          <xm:sqref>E44:R44 E43:P43 V43:W44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="220" id="{DAB09B98-6111-4707-914A-9DA75AC1A036}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E46:R46 E45:P45 U45:W46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="396" id="{98711D91-7E40-4EB1-BC85-311E4D52FA65}">
+          <x14:cfRule type="iconSet" priority="435" id="{98711D91-7E40-4EB1-BC85-311E4D52FA65}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5823,7 +6015,7 @@
           <xm:sqref>F6:W6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{D4202E0D-6ACD-4CE9-81AB-6E18C3BB4C22}">
+          <x14:cfRule type="iconSet" priority="211" id="{D4202E0D-6ACD-4CE9-81AB-6E18C3BB4C22}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5842,7 +6034,7 @@
           <xm:sqref>K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="201" id="{A28075A2-F080-40BC-AB1D-352239DBAE21}">
+          <x14:cfRule type="iconSet" priority="240" id="{A28075A2-F080-40BC-AB1D-352239DBAE21}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5858,10 +6050,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K33</xm:sqref>
+          <xm:sqref>K31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="189" id="{CCF02C3C-B13D-44BB-9FEB-CBE84B7F217B}">
+          <x14:cfRule type="iconSet" priority="228" id="{CCF02C3C-B13D-44BB-9FEB-CBE84B7F217B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5877,10 +6069,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K37</xm:sqref>
+          <xm:sqref>K35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="165" id="{CDC2606F-EB43-4DDA-BEFB-71E2A0709FD2}">
+          <x14:cfRule type="iconSet" priority="204" id="{CDC2606F-EB43-4DDA-BEFB-71E2A0709FD2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5899,7 +6091,7 @@
           <xm:sqref>L29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="199" id="{DD2038BF-80A4-41DE-B87C-413429FCFD0B}">
+          <x14:cfRule type="iconSet" priority="238" id="{DD2038BF-80A4-41DE-B87C-413429FCFD0B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5915,10 +6107,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L33</xm:sqref>
+          <xm:sqref>L31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="187" id="{40FC94E4-93F2-4CBD-9202-0047FE1B93D0}">
+          <x14:cfRule type="iconSet" priority="226" id="{40FC94E4-93F2-4CBD-9202-0047FE1B93D0}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5934,10 +6126,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L37</xm:sqref>
+          <xm:sqref>L35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="158" id="{08B8E26E-16CE-46F3-841C-C017807B5026}">
+          <x14:cfRule type="iconSet" priority="236" id="{E4066BC7-BB2C-4C39-9D96-BE937A7D6377}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5956,7 +6148,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="197" id="{E4066BC7-BB2C-4C39-9D96-BE937A7D6377}">
+          <x14:cfRule type="iconSet" priority="224" id="{6506BA93-ADC7-4839-B22A-5B0A6641008D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5972,29 +6164,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
+          <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="185" id="{6506BA93-ADC7-4839-B22A-5B0A6641008D}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="151" id="{FDDA1F5C-7C05-45C4-8748-A8E088177531}">
+          <x14:cfRule type="iconSet" priority="234" id="{38DB137E-1625-4CA2-B504-AAB614D061DA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6013,7 +6186,7 @@
           <xm:sqref>N31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="195" id="{38DB137E-1625-4CA2-B504-AAB614D061DA}">
+          <x14:cfRule type="iconSet" priority="222" id="{9DAFA717-1823-4358-9231-FB3E90BCE6BC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6029,10 +6202,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>N33</xm:sqref>
+          <xm:sqref>N35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="183" id="{9DAFA717-1823-4358-9231-FB3E90BCE6BC}">
+          <x14:cfRule type="iconSet" priority="232" id="{5CF54ABE-073A-4B94-BF13-B5FF941E0482}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6048,10 +6221,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>N37</xm:sqref>
+          <xm:sqref>O33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="193" id="{5CF54ABE-073A-4B94-BF13-B5FF941E0482}">
+          <x14:cfRule type="iconSet" priority="220" id="{B9C9DD23-E0CF-4E12-8742-C549EEB70ECE}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6067,10 +6240,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O35</xm:sqref>
+          <xm:sqref>O37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="181" id="{B9C9DD23-E0CF-4E12-8742-C549EEB70ECE}">
+          <x14:cfRule type="iconSet" priority="57" id="{E32E9DB8-6841-4984-BA69-24D2A38287FD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6086,10 +6259,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O39</xm:sqref>
+          <xm:sqref>O46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E32E9DB8-6841-4984-BA69-24D2A38287FD}">
+          <x14:cfRule type="iconSet" priority="230" id="{98794CD1-7250-4D28-8386-F486FA3EE630}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6105,10 +6278,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O50</xm:sqref>
+          <xm:sqref>P33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="191" id="{98794CD1-7250-4D28-8386-F486FA3EE630}">
+          <x14:cfRule type="iconSet" priority="218" id="{242BE341-C03E-40D8-9C82-8DEF87BAC773}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6124,10 +6297,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>P35</xm:sqref>
+          <xm:sqref>P37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{242BE341-C03E-40D8-9C82-8DEF87BAC773}">
+          <x14:cfRule type="iconSet" priority="50" id="{E8982168-FBC3-44B7-A58E-ADE4D09BD622}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6143,10 +6316,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>P39</xm:sqref>
+          <xm:sqref>P46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{E8982168-FBC3-44B7-A58E-ADE4D09BD622}">
+          <x14:cfRule type="iconSet" priority="169" id="{2A2FD25F-1C2E-4EC1-8E27-7969195D7E33}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6162,10 +6335,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>P50</xm:sqref>
+          <xm:sqref>Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="130" id="{2A2FD25F-1C2E-4EC1-8E27-7969195D7E33}">
+          <x14:cfRule type="iconSet" priority="120" id="{71E6D021-1E42-47AD-8115-0E00E673D3AC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6184,7 +6357,7 @@
           <xm:sqref>Q43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="81" id="{71E6D021-1E42-47AD-8115-0E00E673D3AC}">
+          <x14:cfRule type="iconSet" priority="162" id="{C88E7370-0EAC-4113-B176-B1158FCC45D6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6200,29 +6373,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>Q45</xm:sqref>
+          <xm:sqref>R41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{77AFE05F-50A1-4041-B381-33226052A24F}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>Q47:Q48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="123" id="{C88E7370-0EAC-4113-B176-B1158FCC45D6}">
+          <x14:cfRule type="iconSet" priority="92" id="{0298DB49-B048-4C45-897A-CE8D41EF8E1F}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6241,7 +6395,7 @@
           <xm:sqref>R43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{0298DB49-B048-4C45-897A-CE8D41EF8E1F}">
+          <x14:cfRule type="iconSet" priority="106" id="{2265D86D-EE2A-4885-9A4D-72222D23D24A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6257,10 +6411,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>R45</xm:sqref>
+          <xm:sqref>S41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{2265D86D-EE2A-4885-9A4D-72222D23D24A}">
+          <x14:cfRule type="iconSet" priority="134" id="{055CA6F7-9A9F-4A30-BEED-16420D95BC32}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6279,7 +6433,7 @@
           <xm:sqref>S43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="95" id="{055CA6F7-9A9F-4A30-BEED-16420D95BC32}">
+          <x14:cfRule type="iconSet" priority="127" id="{B0ECB309-0B45-42E9-BDEE-D02EAB290DF0}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6295,10 +6449,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>S45</xm:sqref>
+          <xm:sqref>T43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="88" id="{B0ECB309-0B45-42E9-BDEE-D02EAB290DF0}">
+          <x14:cfRule type="iconSet" priority="64" id="{EFF70F16-88DC-4E8E-A47C-163186BDD038}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6314,10 +6468,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>T45</xm:sqref>
+          <xm:sqref>W45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{7F988BCE-322F-4CFC-936C-11E4BE545937}">
+          <x14:cfRule type="iconSet" priority="34" id="{74072125-749D-407E-8498-6409169B9D83}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6333,7 +6487,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="4" id="{1E03AFF2-8EAC-47BD-84A8-4DDE571DFC92}">
+          <xm:sqref>M29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="28" id="{B53A0138-C7E7-48CA-A98B-1C30478D56B1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6349,10 +6506,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>U47:V47</xm:sqref>
+          <xm:sqref>N29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{EFF70F16-88DC-4E8E-A47C-163186BDD038}">
+          <x14:cfRule type="iconSet" priority="22" id="{C9B00024-1B4D-42DA-9491-61D3C8EC9CD0}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6368,7 +6525,64 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>W49</xm:sqref>
+          <xm:sqref>O29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{DCFDDB86-A58E-4D85-BA92-3FA49713C76A}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{3ABE08FB-CF44-40D5-BA8B-34B1425A2653}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>U43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{2556D9D1-420A-456F-AD65-D6BE5CB706AE}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
